--- a/FinalProject/Group3FinalTodoList.xlsx
+++ b/FinalProject/Group3FinalTodoList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\381DataModeling\Group3\CSCI381-DataModeling-Group3\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuan\OneDrive\Documents\Github\CSCI381-DataModeling-Group3\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466719A4-1623-4DB6-B926-370043AA90A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2127A696-44AF-48FE-AF50-F1A8C0813595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="2250" windowWidth="17280" windowHeight="12735" tabRatio="656" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="656" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ralph Granata" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
   <si>
     <t>To-do list</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>(Subteams) Mongo Model: Convert SQL Server model and fully implement in MongoDB</t>
+  </si>
+  <si>
+    <t>Migrated from SQL to MongoDB</t>
+  </si>
+  <si>
+    <t>Created MongoDB Presentation</t>
   </si>
 </sst>
 </file>
@@ -660,7 +666,7 @@
     <tableColumn id="5" xr3:uid="{5E189E6C-897D-4B5A-8364-27B21CA1CBBA}" name="Start By"/>
     <tableColumn id="7" xr3:uid="{95E96DF1-0970-4931-8E53-959E652FA13F}" name="Original Due By"/>
     <tableColumn id="3" xr3:uid="{B27B8B97-D5C3-434F-A3A7-A09684E41723}" name="Revised Due By" dataCellStyle="Date"/>
-    <tableColumn id="8" xr3:uid="{4CE19A8A-B4E4-4A20-9556-113353C2D4EF}" name="Number Of Days" dataDxfId="2" dataCellStyle="Date"/>
+    <tableColumn id="8" xr3:uid="{4CE19A8A-B4E4-4A20-9556-113353C2D4EF}" name="Number Of Days" dataDxfId="5" dataCellStyle="Date"/>
     <tableColumn id="4" xr3:uid="{32DDB9AB-4913-4D6C-B3FE-5C9ED2EF169B}" name="Revision Notes"/>
   </tableColumns>
   <tableStyleInfo name="To-do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -702,7 +708,7 @@
     <tableColumn id="5" xr3:uid="{F85776C7-4948-4801-8194-613F8E7FB0C6}" name="Start By"/>
     <tableColumn id="7" xr3:uid="{9CF6C980-7F50-4774-BF6F-13CB361D89F8}" name="Original Due By"/>
     <tableColumn id="3" xr3:uid="{D5155BDD-C391-4F77-8CCE-D6F3DAD95889}" name="Revised Due By" dataCellStyle="Date"/>
-    <tableColumn id="8" xr3:uid="{9CB3D9F5-CDD3-42ED-B9A5-67121348CB6B}" name="Number Of Days" dataDxfId="0" dataCellStyle="Date"/>
+    <tableColumn id="8" xr3:uid="{9CB3D9F5-CDD3-42ED-B9A5-67121348CB6B}" name="Number Of Days" dataDxfId="3" dataCellStyle="Date"/>
     <tableColumn id="4" xr3:uid="{869BCD7B-E880-41AA-988E-F18AD59BA48B}" name="Revision Notes"/>
   </tableColumns>
   <tableStyleInfo name="To-do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -723,7 +729,7 @@
     <tableColumn id="5" xr3:uid="{34E2CD4F-1E97-4711-A861-AB2E724E47A5}" name="Start By"/>
     <tableColumn id="7" xr3:uid="{76797FEF-24D8-44BE-A5AC-3A028D26453F}" name="Original Due By"/>
     <tableColumn id="3" xr3:uid="{B056E8E2-0DB2-4CC7-B92E-090248BC1008}" name="Revised Due By" dataCellStyle="Date"/>
-    <tableColumn id="8" xr3:uid="{633A98D0-F144-4448-944C-38E3DBF2AE14}" name="Number Of Days" dataDxfId="5" dataCellStyle="Date"/>
+    <tableColumn id="8" xr3:uid="{633A98D0-F144-4448-944C-38E3DBF2AE14}" name="Number Of Days" dataDxfId="2" dataCellStyle="Date"/>
     <tableColumn id="4" xr3:uid="{E19BF0D0-E1ED-4DA5-A63C-DA2A567EB0FE}" name="Revision Notes"/>
   </tableColumns>
   <tableStyleInfo name="To-do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -744,7 +750,7 @@
     <tableColumn id="5" xr3:uid="{6AF27390-4D11-4EAF-8B9E-0D4798325C18}" name="Start By"/>
     <tableColumn id="7" xr3:uid="{5239363D-3580-40C7-806F-236A37C31F11}" name="Original Due By"/>
     <tableColumn id="3" xr3:uid="{1A2926AF-9F27-4FE3-BC94-CA95B395A465}" name="Revised Due By" dataCellStyle="Date"/>
-    <tableColumn id="8" xr3:uid="{ACA142AF-FFFB-42D0-898E-CA49C693C268}" name="Number Of Days" dataDxfId="3" dataCellStyle="Date"/>
+    <tableColumn id="8" xr3:uid="{ACA142AF-FFFB-42D0-898E-CA49C693C268}" name="Number Of Days" dataDxfId="1" dataCellStyle="Date"/>
     <tableColumn id="4" xr3:uid="{42F5A6C7-6A18-479D-83DA-36BB21059617}" name="Revision Notes"/>
   </tableColumns>
   <tableStyleInfo name="To-do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -765,7 +771,7 @@
     <tableColumn id="5" xr3:uid="{8C28F4BD-BC05-4EB0-8052-87470F33A56A}" name="Start By"/>
     <tableColumn id="7" xr3:uid="{0A373FB8-FE70-44CE-A096-4E0FDE6F202E}" name="Original Due By"/>
     <tableColumn id="3" xr3:uid="{09856C84-D2E0-42BD-A94B-B7C4B2401467}" name="Revised Due By" dataCellStyle="Date"/>
-    <tableColumn id="8" xr3:uid="{19805E8C-8000-46BD-9FE3-8E1DBA6F0981}" name="Number Of Days" dataDxfId="1" dataCellStyle="Date"/>
+    <tableColumn id="8" xr3:uid="{19805E8C-8000-46BD-9FE3-8E1DBA6F0981}" name="Number Of Days" dataDxfId="0" dataCellStyle="Date"/>
     <tableColumn id="4" xr3:uid="{65B7886F-D25A-421D-A2DB-14B036E790A4}" name="Revision Notes"/>
   </tableColumns>
   <tableStyleInfo name="To-do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1386,8 +1392,8 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B6:H6"/>
   </mergeCells>
-  <conditionalFormatting sqref="B14:B16">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="B8:B13">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1395,8 +1401,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B13">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="B14:B16">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1664,8 +1670,8 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B6:H6"/>
   </mergeCells>
-  <conditionalFormatting sqref="B15:B16">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="B8:B12 B14">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1682,8 +1688,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B12 B14">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="B15:B16">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1948,6 +1954,15 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B6:H6"/>
   </mergeCells>
+  <conditionalFormatting sqref="B8:B12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B13">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -1959,15 +1974,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
     <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B12">
-    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2230,6 +2236,15 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B6:H6"/>
   </mergeCells>
+  <conditionalFormatting sqref="B8:B12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B13">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -2241,15 +2256,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
     <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B12">
-    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2280,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7F7114-971E-49E2-8EA2-0E1816A122F1}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2382,7 +2388,9 @@
       <c r="E8" s="6">
         <v>45251</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <v>45256</v>
+      </c>
       <c r="G8">
         <v>1</v>
       </c>
@@ -2401,7 +2409,9 @@
       <c r="E9" s="6">
         <v>45254</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>45258</v>
+      </c>
       <c r="G9">
         <v>6</v>
       </c>
@@ -2432,7 +2442,7 @@
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -2443,11 +2453,15 @@
       <c r="E11" s="6">
         <v>45266</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>45267</v>
+      </c>
       <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11"/>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
@@ -2462,11 +2476,15 @@
       <c r="E12" s="6">
         <v>45266</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>45267</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12"/>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
@@ -2512,8 +2530,8 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B6:H6"/>
   </mergeCells>
-  <conditionalFormatting sqref="B15:B16">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="B8:B13">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2530,8 +2548,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B13">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="B15:B16">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2794,6 +2812,15 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B6:H6"/>
   </mergeCells>
+  <conditionalFormatting sqref="B8:B12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B13">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -2805,15 +2832,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
     <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B12">
-    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2844,7 +2862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FA15D5-0168-4304-A7FC-CF44490ADCEB}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -3076,6 +3094,15 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B6:H6"/>
   </mergeCells>
+  <conditionalFormatting sqref="B8:B12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B13">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -3087,15 +3114,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
     <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B12">
-    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/FinalProject/Group3FinalTodoList.xlsx
+++ b/FinalProject/Group3FinalTodoList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuan\OneDrive\Documents\Github\CSCI381-DataModeling-Group3\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\381DataModeling\Group3\CSCI381-DataModeling-Group3\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2127A696-44AF-48FE-AF50-F1A8C0813595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48E8230-67BF-4685-99DE-75A8C0D3041D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="656" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="2250" windowWidth="17280" windowHeight="12735" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ralph Granata" sheetId="1" r:id="rId1"/>
@@ -1133,8 +1133,8 @@
   </sheetPr>
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F8EC82-3D7B-4B35-8BCF-93C71E414EE5}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:H4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -2286,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7F7114-971E-49E2-8EA2-0E1816A122F1}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/FinalProject/Group3FinalTodoList.xlsx
+++ b/FinalProject/Group3FinalTodoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\381DataModeling\Group3\CSCI381-DataModeling-Group3\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48E8230-67BF-4685-99DE-75A8C0D3041D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FCCD4F-3A54-420F-AD97-F30CA1955A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1305" yWindow="2250" windowWidth="17280" windowHeight="12735" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1134,7 +1134,7 @@
   <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>

--- a/FinalProject/Group3FinalTodoList.xlsx
+++ b/FinalProject/Group3FinalTodoList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\381DataModeling\Group3\CSCI381-DataModeling-Group3\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuan\OneDrive\Documents\Github\CSCI381-DataModeling-Group3\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FCCD4F-3A54-420F-AD97-F30CA1955A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3545177-B820-4AC1-AF8B-AFAE53CAF52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="2250" windowWidth="17280" windowHeight="12735" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="656" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ralph Granata" sheetId="1" r:id="rId1"/>
@@ -1133,7 +1133,7 @@
   </sheetPr>
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2286,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7F7114-971E-49E2-8EA2-0E1816A122F1}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
